--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0048_Filter Pipeline Follow Up.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0048_Filter Pipeline Follow Up.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\Digisales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524C8F95-CAB5-4468-B64E-F753337F36E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27212F24-9CF0-49B5-B672-8DA8FB08FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0048" sheetId="2" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Budi</t>
-  </si>
-  <si>
     <t>DGS-63</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Follow Up</t>
+  </si>
+  <si>
+    <t>azara</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,19 +565,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="11">
-        <v>24068</v>
+        <v>49998</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>8</v>
@@ -589,11 +589,11 @@
         <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>16</v>
